--- a/public/files/shelter/Vault_shelter_IncidentsLandlord.xlsx
+++ b/public/files/shelter/Vault_shelter_IncidentsLandlord.xlsx
@@ -5,17 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABDULLSA\OneDrive - UNHCR\Desktop\VASyR\shelter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STUPALOV\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Shelter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686BFE11-5413-40ED-8C67-D9268B151352}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876BD56B-177F-41C0-B0AE-77499B962891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D93387DC-CA50-40CE-A58F-088078DE76A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D93387DC-CA50-40CE-A58F-088078DE76A7}"/>
   </bookViews>
   <sheets>
     <sheet name="METAData" sheetId="2" r:id="rId1"/>
     <sheet name="Incidents with Landlord" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="incident_6_month">'Incidents with Landlord'!$D$3</definedName>
+    <definedName name="LIst">METAData!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,20 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="72">
   <si>
     <t>Back to Analysis Plan</t>
   </si>
   <si>
-    <t>Table: % HH who had an incident with their current landlord in the past 6 months</t>
-  </si>
-  <si>
     <t>Governorate/District/Gender of the Head of Household/Type of Shelter</t>
   </si>
   <si>
-    <t>HHs who had an incident with their current landlord in the past 6 months</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -58,9 +56,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>Row Valid N %</t>
-  </si>
-  <si>
     <t>Governorate</t>
   </si>
   <si>
@@ -184,12 +179,6 @@
     <t>Non-Permanent</t>
   </si>
   <si>
-    <t>Percentages calculated out of the total number of HHs</t>
-  </si>
-  <si>
-    <t>Table: Incidents with landlord in the past 6 months</t>
-  </si>
-  <si>
     <t>Governorate/Gender of the Head of Household/Type of Shelter</t>
   </si>
   <si>
@@ -205,9 +194,6 @@
     <t>Threatened</t>
   </si>
   <si>
-    <t>Percentages calculated out of the total number of HHs who had an incident with their current landlord in the past 6 months</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -226,16 +212,112 @@
     <t>Shelter</t>
   </si>
   <si>
-    <t>Incidents with Landlord</t>
-  </si>
-  <si>
     <t>Vault_shelter_IncidentsLandlord.xlsx</t>
   </si>
   <si>
-    <t>% household who had an incident with their current landlord in the past 6 months</t>
-  </si>
-  <si>
-    <t>Incidents with landlord in the past 6 months</t>
+    <t>households who had an incident with their current landlord in the past 6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> %</t>
+  </si>
+  <si>
+    <t>Incidents with landlord in the past 6 months: Blackmailed</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Incidents with landlord in the past 6 months: Coerced</t>
+  </si>
+  <si>
+    <t>Incidents with landlord in the past 6 months: Threatened</t>
+  </si>
+  <si>
+    <t>Incidents with landlord in the past 6 months: Others</t>
+  </si>
+  <si>
+    <t>% households that had an incident with their current landlord in the past 6 months</t>
+  </si>
+  <si>
+    <r>
+      <t>% households who had an incident with their current landlord in the past 6 months</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Percentages calculated out of the total number of households</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Incidents with landlord in the past 6 months</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Percentages calculated out of the total number of households who had an incident with their current landlord in the past 6 months</t>
+    </r>
+  </si>
+  <si>
+    <t>Incidents with landlord</t>
   </si>
 </sst>
 </file>
@@ -248,7 +330,7 @@
     <numFmt numFmtId="166" formatCode="####.0%"/>
     <numFmt numFmtId="167" formatCode="####"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -301,6 +383,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -624,9 +730,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -711,56 +814,8 @@
     <xf numFmtId="167" fontId="5" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
@@ -772,6 +827,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,75 +1195,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5473A3C9-BD10-4460-A674-DB73D9257B0A}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="39" customWidth="1"/>
     <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="52" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="E3" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="54" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="E4" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="54" t="s">
+      <c r="E5" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="53" t="s">
+      <c r="E6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>65</v>
-      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="38"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="38"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Incidents with Landlord'!A2" display="Link" xr:uid="{CB4E46B0-C7B4-47A4-A5CF-330A3D735039}"/>
+    <hyperlink ref="A2" location="incident_6_month" display="Link" xr:uid="{CB4E46B0-C7B4-47A4-A5CF-330A3D735039}"/>
     <hyperlink ref="A3" location="'Incidents with Landlord'!A48" display="Link" xr:uid="{738BC028-A6FE-43F3-9E00-898C8D32BAC1}"/>
+    <hyperlink ref="A4:A6" location="'Incidents with Landlord'!A48" display="Link" xr:uid="{BEC26E7D-F4BA-46D1-85DE-B0F34EB7524B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1166,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45B169B-602D-4558-A997-4B58FCFC3A93}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="B1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:L48"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1177,1975 +1350,1996 @@
     <col min="1" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
-    </row>
-    <row r="2" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="3"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+    </row>
+    <row r="2" spans="2:24" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:23" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="2:24" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="2:24" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
         <v>4645.5687916540828</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="9">
         <v>0.97519541341599048</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="10">
         <v>118.16238236899999</v>
       </c>
-      <c r="F6" s="10">
+      <c r="G6" s="9">
         <v>2.480458658400933E-2</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="10">
         <v>4763.7311740230834</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="11">
+        <v>1</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="13">
         <v>449.35783274999625</v>
       </c>
-      <c r="D7" s="15">
+      <c r="E7" s="14">
         <v>0.97137014314928483</v>
       </c>
-      <c r="E7" s="16">
+      <c r="F7" s="15">
         <v>13.24423086</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="14">
         <v>2.8629856850716E-2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="15">
         <v>462.60206360999592</v>
       </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="16">
+        <v>1</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="40"/>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17">
         <v>497.25446281899679</v>
       </c>
-      <c r="D8" s="19">
+      <c r="E8" s="18">
         <v>0.9951995705298331</v>
       </c>
-      <c r="E8" s="20">
+      <c r="F8" s="19">
         <v>2.398549043</v>
       </c>
-      <c r="F8" s="21">
+      <c r="G8" s="20">
         <v>4.8004294701669385E-3</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="19">
         <v>499.65301186199673</v>
       </c>
-      <c r="H8" s="22">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="21">
+        <v>1</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B9" s="40"/>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="13">
         <v>144.03355472299967</v>
       </c>
-      <c r="D9" s="15">
+      <c r="E9" s="14">
         <v>0.97186147186147176</v>
       </c>
-      <c r="E9" s="16">
+      <c r="F9" s="15">
         <v>4.1702365510000003</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="14">
         <v>2.8138528138528206E-2</v>
       </c>
-      <c r="G9" s="16">
+      <c r="H9" s="15">
         <v>148.20379127399966</v>
       </c>
-      <c r="H9" s="17">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="16">
+        <v>1</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="2:24" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="40"/>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17">
         <v>972.87809514099695</v>
       </c>
-      <c r="D10" s="19">
+      <c r="E10" s="18">
         <v>0.99433381564806356</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="19">
         <v>5.5439195090000002</v>
       </c>
-      <c r="F10" s="21">
+      <c r="G10" s="20">
         <v>5.6661843519365028E-3</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="19">
         <v>978.42201464999687</v>
       </c>
-      <c r="H10" s="22">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="21">
+        <v>1</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="40"/>
+      <c r="C11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13">
         <v>202.53467669599948</v>
       </c>
-      <c r="D11" s="15">
+      <c r="E11" s="14">
         <v>0.98049437456446009</v>
       </c>
-      <c r="E11" s="16">
+      <c r="F11" s="15">
         <v>4.0291567640000006</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="14">
         <v>1.9505625435539933E-2</v>
       </c>
-      <c r="G11" s="16">
+      <c r="H11" s="15">
         <v>206.56383345999947</v>
       </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17">
         <v>1386.6231697159985</v>
       </c>
-      <c r="D12" s="19">
+      <c r="E12" s="18">
         <v>0.96445009950008265</v>
       </c>
-      <c r="E12" s="20">
+      <c r="F12" s="19">
         <v>51.111317982999992</v>
       </c>
-      <c r="F12" s="19">
+      <c r="G12" s="18">
         <v>3.5549900499918033E-2</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="19">
         <v>1437.7344876989976</v>
       </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="21">
+        <v>1</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B13" s="40"/>
+      <c r="C13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="13">
         <v>670.10452817299984</v>
       </c>
-      <c r="D13" s="15">
+      <c r="E13" s="14">
         <v>0.96285568637778174</v>
       </c>
-      <c r="E13" s="16">
+      <c r="F13" s="15">
         <v>25.85078232</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="14">
         <v>3.7144313622217852E-2</v>
       </c>
-      <c r="G13" s="16">
+      <c r="H13" s="15">
         <v>695.95531049300018</v>
       </c>
-      <c r="H13" s="17">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="2:24" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="40"/>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="17">
         <v>322.78247163599809</v>
       </c>
-      <c r="D14" s="19">
+      <c r="E14" s="18">
         <v>0.96469125153677904</v>
       </c>
-      <c r="E14" s="20">
+      <c r="F14" s="19">
         <v>11.814189339000004</v>
       </c>
-      <c r="F14" s="19">
+      <c r="G14" s="18">
         <v>3.5308748463221504E-2</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="19">
         <v>334.59666097499792</v>
       </c>
-      <c r="H14" s="22">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="14">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="2:24" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B15" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="13">
         <v>449.35783274999625</v>
       </c>
-      <c r="D15" s="15">
+      <c r="E15" s="14">
         <v>0.97137014314928483</v>
       </c>
-      <c r="E15" s="16">
+      <c r="F15" s="15">
         <v>13.24423086</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="14">
         <v>2.8629856850716E-2</v>
       </c>
-      <c r="G15" s="16">
+      <c r="H15" s="15">
         <v>462.60206360999592</v>
       </c>
-      <c r="H15" s="17">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="2:24" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="40"/>
+      <c r="C16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="17">
         <v>286.16703794400047</v>
       </c>
-      <c r="D16" s="19">
+      <c r="E16" s="18">
         <v>0.94520547945205524</v>
       </c>
-      <c r="E16" s="20">
+      <c r="F16" s="19">
         <v>16.589393504</v>
       </c>
-      <c r="F16" s="19">
+      <c r="G16" s="18">
         <v>5.4794520547945147E-2</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="19">
         <v>302.75643144800034</v>
       </c>
-      <c r="H16" s="22">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="14">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="40"/>
+      <c r="C17" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="13">
         <v>509.18667981999999</v>
       </c>
-      <c r="D17" s="15">
+      <c r="E17" s="14">
         <v>0.9838709677419355</v>
       </c>
-      <c r="E17" s="16">
+      <c r="F17" s="15">
         <v>8.3473226199999999</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="14">
         <v>1.6129032258064516E-2</v>
       </c>
-      <c r="G17" s="16">
+      <c r="H17" s="15">
         <v>517.53400243999999</v>
       </c>
-      <c r="H17" s="17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="40"/>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="17">
         <v>467.79957014699789</v>
       </c>
-      <c r="D18" s="19">
+      <c r="E18" s="18">
         <v>0.99635036496350371</v>
       </c>
-      <c r="E18" s="20">
+      <c r="F18" s="19">
         <v>1.713551539</v>
       </c>
-      <c r="F18" s="21">
+      <c r="G18" s="20">
         <v>3.6496350364963672E-3</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="19">
         <v>469.51312168599787</v>
       </c>
-      <c r="H18" s="22">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="21">
+        <v>1</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="14">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="40"/>
+      <c r="C19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="13">
         <v>9.1714410900000107</v>
       </c>
-      <c r="D19" s="15">
+      <c r="E19" s="14">
         <v>0.95454545454545459</v>
       </c>
-      <c r="E19" s="23">
+      <c r="F19" s="22">
         <v>0.43673529000000005</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="14">
         <v>4.5454545454545393E-2</v>
       </c>
-      <c r="G19" s="16">
+      <c r="H19" s="15">
         <v>9.6081763800000122</v>
       </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="16">
+        <v>1</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
-      <c r="B20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="40"/>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="17">
         <v>144.03355472299967</v>
       </c>
-      <c r="D20" s="19">
+      <c r="E20" s="18">
         <v>0.97186147186147176</v>
       </c>
-      <c r="E20" s="20">
+      <c r="F20" s="19">
         <v>4.1702365510000003</v>
       </c>
-      <c r="F20" s="19">
+      <c r="G20" s="18">
         <v>2.8138528138528206E-2</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="19">
         <v>148.20379127399966</v>
       </c>
-      <c r="H20" s="22">
-        <v>1</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="21">
+        <v>1</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
-      <c r="B21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="14">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="40"/>
+      <c r="C21" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13">
         <v>38.36052712799988</v>
       </c>
-      <c r="D21" s="15">
+      <c r="E21" s="14">
         <v>0.98089171974522282</v>
       </c>
-      <c r="E21" s="23">
+      <c r="F21" s="22">
         <v>0.74728299600000003</v>
       </c>
-      <c r="F21" s="15">
+      <c r="G21" s="14">
         <v>1.9108280254777132E-2</v>
       </c>
-      <c r="G21" s="16">
+      <c r="H21" s="15">
         <v>39.107810123999876</v>
       </c>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="16">
+        <v>1</v>
+      </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
-      <c r="B22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="40"/>
+      <c r="C22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="17">
         <v>223.21936691999932</v>
       </c>
-      <c r="D22" s="19">
+      <c r="E22" s="18">
         <v>0.94736842105263164</v>
       </c>
-      <c r="E22" s="20">
+      <c r="F22" s="19">
         <v>12.401075940000004</v>
       </c>
-      <c r="F22" s="19">
+      <c r="G22" s="18">
         <v>5.2631578947368605E-2</v>
       </c>
-      <c r="G22" s="20">
+      <c r="H22" s="19">
         <v>235.62044285999926</v>
       </c>
-      <c r="H22" s="22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="21">
+        <v>1</v>
+      </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="35"/>
-      <c r="B23" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B23" s="40"/>
+      <c r="C23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="13">
         <v>56.334136473999848</v>
       </c>
-      <c r="D23" s="15">
+      <c r="E23" s="14">
         <v>0.93129770992366445</v>
       </c>
-      <c r="E23" s="16">
+      <c r="F23" s="15">
         <v>4.1557969529999994</v>
       </c>
-      <c r="F23" s="15">
+      <c r="G23" s="14">
         <v>6.8702290076336076E-2</v>
       </c>
-      <c r="G23" s="16">
+      <c r="H23" s="15">
         <v>60.489933426999819</v>
       </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="35"/>
-      <c r="B24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B24" s="40"/>
+      <c r="C24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="17">
         <v>29.454892671999929</v>
       </c>
-      <c r="D24" s="19">
+      <c r="E24" s="18">
         <v>0.97727272727272729</v>
       </c>
-      <c r="E24" s="24">
+      <c r="F24" s="23">
         <v>0.68499750400000003</v>
       </c>
-      <c r="F24" s="19">
+      <c r="G24" s="18">
         <v>2.2727272727272787E-2</v>
       </c>
-      <c r="G24" s="20">
+      <c r="H24" s="19">
         <v>30.139890175999923</v>
       </c>
-      <c r="H24" s="22">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="21">
+        <v>1</v>
+      </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="14">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="40"/>
+      <c r="C25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="13">
         <v>76.036592951999765</v>
       </c>
-      <c r="D25" s="15">
+      <c r="E25" s="14">
         <v>0.98571428571428588</v>
       </c>
-      <c r="E25" s="16">
+      <c r="F25" s="15">
         <v>1.1019796079999999</v>
       </c>
-      <c r="F25" s="15">
+      <c r="G25" s="14">
         <v>1.428571428571433E-2</v>
       </c>
-      <c r="G25" s="16">
+      <c r="H25" s="15">
         <v>77.138572559999758</v>
       </c>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="16">
+        <v>1</v>
+      </c>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B26" s="40"/>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="17">
         <v>243.19803509800045</v>
       </c>
-      <c r="D26" s="19">
+      <c r="E26" s="18">
         <v>0.96598639455782309</v>
       </c>
-      <c r="E26" s="20">
+      <c r="F26" s="19">
         <v>8.5633110949999995</v>
       </c>
-      <c r="F26" s="19">
+      <c r="G26" s="18">
         <v>3.4013605442176804E-2</v>
       </c>
-      <c r="G26" s="20">
+      <c r="H26" s="19">
         <v>251.76134619300049</v>
       </c>
-      <c r="H26" s="22">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="21">
+        <v>1</v>
+      </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="14">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="40"/>
+      <c r="C27" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="13">
         <v>242.86391756500024</v>
       </c>
-      <c r="D27" s="15">
+      <c r="E27" s="14">
         <v>0.96178343949044587</v>
       </c>
-      <c r="E27" s="16">
+      <c r="F27" s="15">
         <v>9.6502218899999992</v>
       </c>
-      <c r="F27" s="15">
+      <c r="G27" s="14">
         <v>3.8216560509554097E-2</v>
       </c>
-      <c r="G27" s="16">
+      <c r="H27" s="15">
         <v>252.51413945500025</v>
       </c>
-      <c r="H27" s="17">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="40"/>
+      <c r="C28" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="17">
         <v>103.22004093800018</v>
       </c>
-      <c r="D28" s="19">
+      <c r="E28" s="18">
         <v>0.98347107438016523</v>
       </c>
-      <c r="E28" s="20">
+      <c r="F28" s="19">
         <v>1.7347906040000001</v>
       </c>
-      <c r="F28" s="19">
+      <c r="G28" s="18">
         <v>1.652892561983468E-2</v>
       </c>
-      <c r="G28" s="20">
+      <c r="H28" s="19">
         <v>104.95483154200019</v>
       </c>
-      <c r="H28" s="22">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="21">
+        <v>1</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="14">
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="40"/>
+      <c r="C29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="13">
         <v>23.050571111999954</v>
       </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0</v>
+      <c r="E29" s="14">
+        <v>1</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="15">
         <v>23.050571111999954</v>
       </c>
-      <c r="H29" s="17">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="16">
+        <v>1</v>
+      </c>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="18">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="40"/>
+      <c r="C30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="17">
         <v>37.441704186000024</v>
       </c>
-      <c r="D30" s="19">
+      <c r="E30" s="18">
         <v>0.95172413793103383</v>
       </c>
-      <c r="E30" s="20">
+      <c r="F30" s="19">
         <v>1.8992168790000001</v>
       </c>
-      <c r="F30" s="19">
+      <c r="G30" s="18">
         <v>4.8275862068965461E-2</v>
       </c>
-      <c r="G30" s="20">
+      <c r="H30" s="19">
         <v>39.340921065000046</v>
       </c>
-      <c r="H30" s="22">
-        <v>1</v>
-      </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="21">
+        <v>1</v>
+      </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
-      <c r="B31" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="14">
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B31" s="40"/>
+      <c r="C31" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="13">
         <v>12.753080874000014</v>
       </c>
-      <c r="D31" s="15">
+      <c r="E31" s="14">
         <v>0.94805194805194792</v>
       </c>
-      <c r="E31" s="23">
+      <c r="F31" s="22">
         <v>0.69879895199999986</v>
       </c>
-      <c r="F31" s="15">
+      <c r="G31" s="14">
         <v>5.1948051948051868E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="H31" s="15">
         <v>13.451879826000019</v>
       </c>
-      <c r="H31" s="17">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="16">
+        <v>1</v>
+      </c>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
-      <c r="B32" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="18">
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="40"/>
+      <c r="C32" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="17">
         <v>87.410345747999713</v>
       </c>
-      <c r="D32" s="19">
+      <c r="E32" s="18">
         <v>0.96350364963503654</v>
       </c>
-      <c r="E32" s="20">
+      <c r="F32" s="19">
         <v>3.310997945</v>
       </c>
-      <c r="F32" s="19">
+      <c r="G32" s="18">
         <v>3.6496350364963626E-2</v>
       </c>
-      <c r="G32" s="20">
+      <c r="H32" s="19">
         <v>90.721343692999696</v>
       </c>
-      <c r="H32" s="22">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="21">
+        <v>1</v>
+      </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
-      <c r="B33" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B33" s="40"/>
+      <c r="C33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="13">
         <v>37.903537518</v>
       </c>
-      <c r="D33" s="15">
+      <c r="E33" s="14">
         <v>0.96078431372549022</v>
       </c>
-      <c r="E33" s="16">
+      <c r="F33" s="15">
         <v>1.547083164</v>
       </c>
-      <c r="F33" s="15">
+      <c r="G33" s="14">
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="H33" s="15">
         <v>39.450620682</v>
       </c>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="16">
+        <v>1</v>
+      </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="35"/>
-      <c r="B34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="18">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B34" s="40"/>
+      <c r="C34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="17">
         <v>34.680048611999979</v>
       </c>
-      <c r="D34" s="19">
+      <c r="E34" s="18">
         <v>0.99180327868852447</v>
       </c>
-      <c r="E34" s="24">
+      <c r="F34" s="23">
         <v>0.28661197199999999</v>
       </c>
-      <c r="F34" s="21">
+      <c r="G34" s="20">
         <v>8.1967213114754137E-3</v>
       </c>
-      <c r="G34" s="20">
+      <c r="H34" s="19">
         <v>34.966660583999982</v>
       </c>
-      <c r="H34" s="22">
-        <v>1</v>
-      </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="21">
+        <v>1</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="35"/>
-      <c r="B35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="14">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B35" s="40"/>
+      <c r="C35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="13">
         <v>183.90826314199953</v>
       </c>
-      <c r="D35" s="15">
+      <c r="E35" s="14">
         <v>0.95757575757575764</v>
       </c>
-      <c r="E35" s="16">
+      <c r="F35" s="15">
         <v>8.1478344430000007</v>
       </c>
-      <c r="F35" s="15">
+      <c r="G35" s="14">
         <v>4.2424242424242538E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="H35" s="15">
         <v>192.05609758499949</v>
       </c>
-      <c r="H35" s="17">
-        <v>1</v>
-      </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
-      <c r="B36" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B36" s="40"/>
+      <c r="C36" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="17">
         <v>126.12112762000049</v>
       </c>
-      <c r="D36" s="19">
+      <c r="E36" s="18">
         <v>0.9770114942528737</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="19">
         <v>2.9675559439999999</v>
       </c>
-      <c r="F36" s="19">
+      <c r="G36" s="18">
         <v>2.298850574712635E-2</v>
       </c>
-      <c r="G36" s="20">
+      <c r="H36" s="19">
         <v>129.08868356400049</v>
       </c>
-      <c r="H36" s="22">
-        <v>1</v>
-      </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="21">
+        <v>1</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="35"/>
-      <c r="B37" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="14">
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B37" s="40"/>
+      <c r="C37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="13">
         <v>213.50933962800028</v>
       </c>
-      <c r="D37" s="15">
+      <c r="E37" s="14">
         <v>0.95705521472392652</v>
       </c>
-      <c r="E37" s="16">
+      <c r="F37" s="15">
         <v>9.580547291000002</v>
       </c>
-      <c r="F37" s="15">
+      <c r="G37" s="14">
         <v>4.2944785276073573E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="H37" s="15">
         <v>223.08988691900029</v>
       </c>
-      <c r="H37" s="17">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="16">
+        <v>1</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="18">
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B38" s="40"/>
+      <c r="C38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="17">
         <v>264.98406999199983</v>
       </c>
-      <c r="D38" s="19">
+      <c r="E38" s="18">
         <v>0.99487179487179478</v>
       </c>
-      <c r="E38" s="20">
+      <c r="F38" s="19">
         <v>1.3658972680000001</v>
       </c>
-      <c r="F38" s="21">
+      <c r="G38" s="20">
         <v>5.1282051282051325E-3</v>
       </c>
-      <c r="G38" s="20">
+      <c r="H38" s="19">
         <v>266.34996725999986</v>
       </c>
-      <c r="H38" s="22">
-        <v>1</v>
-      </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="21">
+        <v>1</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="14">
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B39" s="40"/>
+      <c r="C39" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="13">
         <v>673.21397653699842</v>
       </c>
-      <c r="D39" s="15">
+      <c r="E39" s="14">
         <v>0.99425287356321845</v>
       </c>
-      <c r="E39" s="16">
+      <c r="F39" s="15">
         <v>3.8914102690000001</v>
       </c>
-      <c r="F39" s="25">
+      <c r="G39" s="24">
         <v>5.747126436781623E-3</v>
       </c>
-      <c r="G39" s="16">
+      <c r="H39" s="15">
         <v>677.10538680599836</v>
       </c>
-      <c r="H39" s="17">
-        <v>1</v>
-      </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="16">
+        <v>1</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="35"/>
-      <c r="B40" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="18">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="40"/>
+      <c r="C40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="17">
         <v>72.189100464000148</v>
       </c>
-      <c r="D40" s="19">
+      <c r="E40" s="18">
         <v>0.98734177215189889</v>
       </c>
-      <c r="E40" s="24">
+      <c r="F40" s="23">
         <v>0.92550128799999998</v>
       </c>
-      <c r="F40" s="19">
+      <c r="G40" s="18">
         <v>1.2658227848101243E-2</v>
       </c>
-      <c r="G40" s="20">
+      <c r="H40" s="19">
         <v>73.114601752000141</v>
       </c>
-      <c r="H40" s="22">
-        <v>1</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="21">
+        <v>1</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="14">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B41" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="13">
         <v>3803.533302654067</v>
       </c>
-      <c r="D41" s="15">
+      <c r="E41" s="14">
         <v>0.97490169110910485</v>
       </c>
-      <c r="E41" s="16">
+      <c r="F41" s="15">
         <v>97.919877026999998</v>
       </c>
-      <c r="F41" s="15">
+      <c r="G41" s="14">
         <v>2.5098308890895024E-2</v>
       </c>
-      <c r="G41" s="16">
+      <c r="H41" s="15">
         <v>3901.4531796810675</v>
       </c>
-      <c r="H41" s="17">
-        <v>1</v>
-      </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="16">
+        <v>1</v>
+      </c>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="18">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="40"/>
+      <c r="C42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="17">
         <v>842.03548900000203</v>
       </c>
-      <c r="D42" s="19">
+      <c r="E42" s="18">
         <v>0.97652438601608194</v>
       </c>
-      <c r="E42" s="20">
+      <c r="F42" s="19">
         <v>20.242505342000005</v>
       </c>
-      <c r="F42" s="19">
+      <c r="G42" s="18">
         <v>2.3475613983918158E-2</v>
       </c>
-      <c r="G42" s="20">
+      <c r="H42" s="19">
         <v>862.27799434200199</v>
       </c>
-      <c r="H42" s="22">
-        <v>1</v>
-      </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="21">
+        <v>1</v>
+      </c>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="14">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B43" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="13">
         <v>3172.4879032990348</v>
       </c>
-      <c r="D43" s="15">
+      <c r="E43" s="14">
         <v>0.97099160322110178</v>
       </c>
-      <c r="E43" s="16">
+      <c r="F43" s="15">
         <v>94.77815005799998</v>
       </c>
-      <c r="F43" s="15">
+      <c r="G43" s="14">
         <v>2.9008396778896418E-2</v>
       </c>
-      <c r="G43" s="16">
+      <c r="H43" s="15">
         <v>3267.2660533570406</v>
       </c>
-      <c r="H43" s="17">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3"/>
+      <c r="I43" s="16">
+        <v>1</v>
+      </c>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="35"/>
-      <c r="B44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="18">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B44" s="40"/>
+      <c r="C44" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="17">
         <v>523.60564293099867</v>
       </c>
-      <c r="D44" s="19">
+      <c r="E44" s="18">
         <v>0.97742743023758594</v>
       </c>
-      <c r="E44" s="20">
+      <c r="F44" s="19">
         <v>12.092074089</v>
       </c>
-      <c r="F44" s="19">
+      <c r="G44" s="18">
         <v>2.2572569762414316E-2</v>
       </c>
-      <c r="G44" s="20">
+      <c r="H44" s="19">
         <v>535.69771701999855</v>
       </c>
-      <c r="H44" s="22">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="21">
+        <v>1</v>
+      </c>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="27">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="41"/>
+      <c r="C45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="26">
         <v>949.4752454240014</v>
       </c>
-      <c r="D45" s="28">
+      <c r="E45" s="27">
         <v>0.98824673049986134</v>
       </c>
-      <c r="E45" s="29">
+      <c r="F45" s="28">
         <v>11.292158222000001</v>
       </c>
-      <c r="F45" s="28">
+      <c r="G45" s="27">
         <v>1.1753269500138705E-2</v>
       </c>
-      <c r="G45" s="29">
+      <c r="H45" s="28">
         <v>960.76740364600141</v>
       </c>
-      <c r="H45" s="30">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3"/>
+      <c r="I45" s="29">
+        <v>1</v>
+      </c>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="45" t="s">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="2:14" ht="38.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="44"/>
+      <c r="D50" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43" t="s">
+      <c r="K50" s="48"/>
+      <c r="L50" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" s="49"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="2:14" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="8">
+        <v>10.040594427</v>
+      </c>
+      <c r="E52" s="9">
+        <v>8.4972850290416624E-2</v>
+      </c>
+      <c r="F52" s="10">
+        <v>17.305650486000001</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.14645651297007156</v>
+      </c>
+      <c r="H52" s="10">
+        <v>20.142290535000001</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.17046279984520984</v>
+      </c>
+      <c r="J52" s="10">
+        <v>78.958220917999995</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0.6682179161844215</v>
+      </c>
+      <c r="L52" s="10">
+        <v>118.16238236899999</v>
+      </c>
+      <c r="M52" s="11">
+        <v>1</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L49" s="44"/>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="4" t="s">
+      <c r="C53" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0</v>
+      </c>
+      <c r="F53" s="22">
+        <v>0.94601648999999999</v>
+      </c>
+      <c r="G53" s="14">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="14">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>12.29821437</v>
+      </c>
+      <c r="K53" s="14">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L53" s="15">
+        <v>13.24423086</v>
+      </c>
+      <c r="M53" s="16">
+        <v>1</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B54" s="40"/>
+      <c r="C54" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="D54" s="17">
+        <v>0</v>
+      </c>
+      <c r="E54" s="18">
+        <v>0</v>
+      </c>
+      <c r="F54" s="19">
+        <v>0</v>
+      </c>
+      <c r="G54" s="18">
+        <v>0</v>
+      </c>
+      <c r="H54" s="19">
+        <v>0</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="19">
+        <v>2.398549043</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1</v>
+      </c>
+      <c r="L54" s="19">
+        <v>2.398549043</v>
+      </c>
+      <c r="M54" s="21">
+        <v>1</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B55" s="40"/>
+      <c r="C55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1.2831497080000001</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0.30769230769230765</v>
+      </c>
+      <c r="F55" s="22">
+        <v>0.32078742700000001</v>
+      </c>
+      <c r="G55" s="14">
+        <v>7.6923076923076913E-2</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0.9623622810000001</v>
+      </c>
+      <c r="I55" s="14">
+        <v>0.23076923076923075</v>
+      </c>
+      <c r="J55" s="15">
+        <v>1.603937135</v>
+      </c>
+      <c r="K55" s="14">
+        <v>0.38461538461538458</v>
+      </c>
+      <c r="L55" s="15">
+        <v>4.1702365510000003</v>
+      </c>
+      <c r="M55" s="16">
+        <v>1</v>
+      </c>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B56" s="40"/>
+      <c r="C56" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0</v>
+      </c>
+      <c r="E56" s="18">
+        <v>0</v>
+      </c>
+      <c r="F56" s="19">
+        <v>0</v>
+      </c>
+      <c r="G56" s="18">
+        <v>0</v>
+      </c>
+      <c r="H56" s="19">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="19">
+        <v>5.5439195090000002</v>
+      </c>
+      <c r="K56" s="18">
+        <v>1</v>
+      </c>
+      <c r="L56" s="19">
+        <v>5.5439195090000002</v>
+      </c>
+      <c r="M56" s="21">
+        <v>1</v>
+      </c>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B57" s="40"/>
+      <c r="C57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="30">
+        <v>0.257847194</v>
+      </c>
+      <c r="E57" s="14">
+        <v>6.3995324357650124E-2</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="15">
+        <v>1.013883052</v>
+      </c>
+      <c r="I57" s="14">
+        <v>0.25163653622487842</v>
+      </c>
+      <c r="J57" s="15">
+        <v>2.7574265179999999</v>
+      </c>
+      <c r="K57" s="14">
+        <v>0.68436813941747132</v>
+      </c>
+      <c r="L57" s="15">
+        <v>4.0291567640000006</v>
+      </c>
+      <c r="M57" s="16">
+        <v>1</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="40"/>
+      <c r="C58" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="17">
+        <v>7.3421633649999993</v>
+      </c>
+      <c r="E58" s="18">
+        <v>0.14365044093447282</v>
+      </c>
+      <c r="F58" s="19">
+        <v>7.0544573909999997</v>
+      </c>
+      <c r="G58" s="18">
+        <v>0.13802143379175558</v>
+      </c>
+      <c r="H58" s="19">
+        <v>12.900986340000001</v>
+      </c>
+      <c r="I58" s="18">
+        <v>0.25240958067821623</v>
+      </c>
+      <c r="J58" s="19">
+        <v>29.714528729999991</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0.58136886119593445</v>
+      </c>
+      <c r="L58" s="19">
+        <v>51.111317982999992</v>
+      </c>
+      <c r="M58" s="21">
+        <v>1</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="40"/>
+      <c r="C59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="13">
+        <v>1.0700842910000001</v>
+      </c>
+      <c r="E59" s="14">
+        <v>4.1394657916101328E-2</v>
+      </c>
+      <c r="F59" s="15">
+        <v>6.65643648</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.25749458556424842</v>
+      </c>
+      <c r="H59" s="15">
+        <v>3.2718436580000003</v>
+      </c>
+      <c r="I59" s="14">
+        <v>0.12656652388692585</v>
+      </c>
+      <c r="J59" s="15">
+        <v>17.235974045000003</v>
+      </c>
+      <c r="K59" s="14">
+        <v>0.6667486434894091</v>
+      </c>
+      <c r="L59" s="15">
+        <v>25.85078232</v>
+      </c>
+      <c r="M59" s="16">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="40"/>
+      <c r="C60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="31">
+        <v>8.7349868999999997E-2</v>
+      </c>
+      <c r="E60" s="20">
+        <v>7.3936405193412626E-3</v>
+      </c>
+      <c r="F60" s="19">
+        <v>2.3279526979999998</v>
+      </c>
+      <c r="G60" s="18">
+        <v>0.19704718040324265</v>
+      </c>
+      <c r="H60" s="19">
+        <v>1.993215204</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0.16871366682944264</v>
+      </c>
+      <c r="J60" s="19">
+        <v>7.4056715679999989</v>
+      </c>
+      <c r="K60" s="18">
+        <v>0.62684551224797302</v>
+      </c>
+      <c r="L60" s="19">
+        <v>11.814189339000004</v>
+      </c>
+      <c r="M60" s="21">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B61" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="13">
         <v>10.040594427</v>
       </c>
-      <c r="D51" s="10">
-        <v>8.4972850290416624E-2</v>
-      </c>
-      <c r="E51" s="11">
-        <v>17.305650486000001</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0.14645651297007156</v>
-      </c>
-      <c r="G51" s="11">
-        <v>20.142290535000001</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0.17046279984520984</v>
-      </c>
-      <c r="I51" s="11">
-        <v>78.958220917999995</v>
-      </c>
-      <c r="J51" s="10">
-        <v>0.6682179161844215</v>
-      </c>
-      <c r="K51" s="11">
-        <v>118.16238236899999</v>
-      </c>
-      <c r="L51" s="12">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="14">
+      <c r="E61" s="14">
+        <v>0.10253887904936247</v>
+      </c>
+      <c r="F61" s="15">
+        <v>13.131989176000003</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0.13410953500665698</v>
+      </c>
+      <c r="H61" s="15">
+        <v>16.764841904000001</v>
+      </c>
+      <c r="I61" s="14">
+        <v>0.17120979328208649</v>
+      </c>
+      <c r="J61" s="15">
+        <v>66.266825517000001</v>
+      </c>
+      <c r="K61" s="14">
+        <v>0.67674539152789048</v>
+      </c>
+      <c r="L61" s="15">
+        <v>97.919877026999998</v>
+      </c>
+      <c r="M61" s="16">
+        <v>1</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="B62" s="40"/>
+      <c r="C62" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="17">
         <v>0</v>
       </c>
-      <c r="D52" s="15">
+      <c r="E62" s="18">
         <v>0</v>
       </c>
-      <c r="E52" s="23">
-        <v>0.94601648999999999</v>
-      </c>
-      <c r="F52" s="15">
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="G52" s="16">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="16">
-        <v>12.29821437</v>
-      </c>
-      <c r="J52" s="15">
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="K52" s="16">
-        <v>13.24423086</v>
-      </c>
-      <c r="L52" s="17">
-        <v>1</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="35"/>
-      <c r="B53" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="18">
-        <v>0</v>
-      </c>
-      <c r="D53" s="19">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20">
-        <v>0</v>
-      </c>
-      <c r="F53" s="19">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20">
-        <v>0</v>
-      </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20">
-        <v>2.398549043</v>
-      </c>
-      <c r="J53" s="19">
-        <v>1</v>
-      </c>
-      <c r="K53" s="20">
-        <v>2.398549043</v>
-      </c>
-      <c r="L53" s="22">
-        <v>1</v>
-      </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="35"/>
-      <c r="B54" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="14">
-        <v>1.2831497080000001</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0.30769230769230765</v>
-      </c>
-      <c r="E54" s="23">
-        <v>0.32078742700000001</v>
-      </c>
-      <c r="F54" s="15">
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="G54" s="23">
-        <v>0.9623622810000001</v>
-      </c>
-      <c r="H54" s="15">
-        <v>0.23076923076923075</v>
-      </c>
-      <c r="I54" s="16">
-        <v>1.603937135</v>
-      </c>
-      <c r="J54" s="15">
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="K54" s="16">
-        <v>4.1702365510000003</v>
-      </c>
-      <c r="L54" s="17">
-        <v>1</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="18">
-        <v>0</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20">
-        <v>0</v>
-      </c>
-      <c r="F55" s="19">
-        <v>0</v>
-      </c>
-      <c r="G55" s="20">
-        <v>0</v>
-      </c>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="20">
-        <v>5.5439195090000002</v>
-      </c>
-      <c r="J55" s="19">
-        <v>1</v>
-      </c>
-      <c r="K55" s="20">
-        <v>5.5439195090000002</v>
-      </c>
-      <c r="L55" s="22">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="31">
+      <c r="F62" s="19">
+        <v>4.17366131</v>
+      </c>
+      <c r="G62" s="18">
+        <v>0.2061830410557092</v>
+      </c>
+      <c r="H62" s="19">
+        <v>3.377448631</v>
+      </c>
+      <c r="I62" s="18">
+        <v>0.16684933875217151</v>
+      </c>
+      <c r="J62" s="19">
+        <v>12.691395401000001</v>
+      </c>
+      <c r="K62" s="18">
+        <v>0.62696762019211916</v>
+      </c>
+      <c r="L62" s="19">
+        <v>20.242505342000005</v>
+      </c>
+      <c r="M62" s="21">
+        <v>1</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="2:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="13">
+        <v>7.4330228219999999</v>
+      </c>
+      <c r="E63" s="14">
+        <v>7.8425489603366635E-2</v>
+      </c>
+      <c r="F63" s="15">
+        <v>14.510622274000001</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.15310092320983423</v>
+      </c>
+      <c r="H63" s="15">
+        <v>17.727065540000002</v>
+      </c>
+      <c r="I63" s="14">
+        <v>0.18703747149687802</v>
+      </c>
+      <c r="J63" s="15">
+        <v>59.756647302000005</v>
+      </c>
+      <c r="K63" s="14">
+        <v>0.63048969900163288</v>
+      </c>
+      <c r="L63" s="15">
+        <v>94.77815005799998</v>
+      </c>
+      <c r="M63" s="16">
+        <v>1</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="2:14" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B64" s="40"/>
+      <c r="C64" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="17">
+        <v>2.0574710920000001</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0.17015038750644559</v>
+      </c>
+      <c r="F64" s="23">
+        <v>0.92351043399999999</v>
+      </c>
+      <c r="G64" s="18">
+        <v>7.6373203406031487E-2</v>
+      </c>
+      <c r="H64" s="19">
+        <v>2.157377801</v>
+      </c>
+      <c r="I64" s="18">
+        <v>0.17841255231495301</v>
+      </c>
+      <c r="J64" s="19">
+        <v>9.663379591</v>
+      </c>
+      <c r="K64" s="18">
+        <v>0.79914988279724886</v>
+      </c>
+      <c r="L64" s="19">
+        <v>12.092074089</v>
+      </c>
+      <c r="M64" s="21">
+        <v>1</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="41"/>
+      <c r="C65" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D65" s="32">
+        <v>0.55010051299999996</v>
+      </c>
+      <c r="E65" s="27">
+        <v>4.87152679040809E-2</v>
+      </c>
+      <c r="F65" s="28">
+        <v>1.8715177779999999</v>
+      </c>
+      <c r="G65" s="27">
+        <v>0.16573605693496274</v>
+      </c>
+      <c r="H65" s="33">
         <v>0.257847194</v>
       </c>
-      <c r="D56" s="15">
-        <v>6.3995324357650124E-2</v>
-      </c>
-      <c r="E56" s="16">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="16">
-        <v>1.013883052</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0.25163653622487842</v>
-      </c>
-      <c r="I56" s="16">
-        <v>2.7574265179999999</v>
-      </c>
-      <c r="J56" s="15">
-        <v>0.68436813941747132</v>
-      </c>
-      <c r="K56" s="16">
-        <v>4.0291567640000006</v>
-      </c>
-      <c r="L56" s="17">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="35"/>
-      <c r="B57" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="18">
-        <v>7.3421633649999993</v>
-      </c>
-      <c r="D57" s="19">
-        <v>0.14365044093447282</v>
-      </c>
-      <c r="E57" s="20">
-        <v>7.0544573909999997</v>
-      </c>
-      <c r="F57" s="19">
-        <v>0.13802143379175558</v>
-      </c>
-      <c r="G57" s="20">
-        <v>12.900986340000001</v>
-      </c>
-      <c r="H57" s="19">
-        <v>0.25240958067821623</v>
-      </c>
-      <c r="I57" s="20">
-        <v>29.714528729999991</v>
-      </c>
-      <c r="J57" s="19">
-        <v>0.58136886119593445</v>
-      </c>
-      <c r="K57" s="20">
-        <v>51.111317982999992</v>
-      </c>
-      <c r="L57" s="22">
-        <v>1</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="35"/>
-      <c r="B58" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="14">
-        <v>1.0700842910000001</v>
-      </c>
-      <c r="D58" s="15">
-        <v>4.1394657916101328E-2</v>
-      </c>
-      <c r="E58" s="16">
-        <v>6.65643648</v>
-      </c>
-      <c r="F58" s="15">
-        <v>0.25749458556424842</v>
-      </c>
-      <c r="G58" s="16">
-        <v>3.2718436580000003</v>
-      </c>
-      <c r="H58" s="15">
-        <v>0.12656652388692585</v>
-      </c>
-      <c r="I58" s="16">
-        <v>17.235974045000003</v>
-      </c>
-      <c r="J58" s="15">
-        <v>0.6667486434894091</v>
-      </c>
-      <c r="K58" s="16">
-        <v>25.85078232</v>
-      </c>
-      <c r="L58" s="17">
-        <v>1</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="35"/>
-      <c r="B59" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="32">
-        <v>8.7349868999999997E-2</v>
-      </c>
-      <c r="D59" s="21">
-        <v>7.3936405193412626E-3</v>
-      </c>
-      <c r="E59" s="20">
-        <v>2.3279526979999998</v>
-      </c>
-      <c r="F59" s="19">
-        <v>0.19704718040324265</v>
-      </c>
-      <c r="G59" s="20">
-        <v>1.993215204</v>
-      </c>
-      <c r="H59" s="19">
-        <v>0.16871366682944264</v>
-      </c>
-      <c r="I59" s="20">
-        <v>7.4056715679999989</v>
-      </c>
-      <c r="J59" s="19">
-        <v>0.62684551224797302</v>
-      </c>
-      <c r="K59" s="20">
-        <v>11.814189339000004</v>
-      </c>
-      <c r="L59" s="22">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="14">
-        <v>10.040594427</v>
-      </c>
-      <c r="D60" s="15">
-        <v>0.10253887904936247</v>
-      </c>
-      <c r="E60" s="16">
-        <v>13.131989176000003</v>
-      </c>
-      <c r="F60" s="15">
-        <v>0.13410953500665698</v>
-      </c>
-      <c r="G60" s="16">
-        <v>16.764841904000001</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0.17120979328208649</v>
-      </c>
-      <c r="I60" s="16">
-        <v>66.266825517000001</v>
-      </c>
-      <c r="J60" s="15">
-        <v>0.67674539152789048</v>
-      </c>
-      <c r="K60" s="16">
-        <v>97.919877026999998</v>
-      </c>
-      <c r="L60" s="17">
-        <v>1</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="18">
-        <v>0</v>
-      </c>
-      <c r="D61" s="19">
-        <v>0</v>
-      </c>
-      <c r="E61" s="20">
-        <v>4.17366131</v>
-      </c>
-      <c r="F61" s="19">
-        <v>0.2061830410557092</v>
-      </c>
-      <c r="G61" s="20">
-        <v>3.377448631</v>
-      </c>
-      <c r="H61" s="19">
-        <v>0.16684933875217151</v>
-      </c>
-      <c r="I61" s="20">
-        <v>12.691395401000001</v>
-      </c>
-      <c r="J61" s="19">
-        <v>0.62696762019211916</v>
-      </c>
-      <c r="K61" s="20">
-        <v>20.242505342000005</v>
-      </c>
-      <c r="L61" s="22">
-        <v>1</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="14">
-        <v>7.4330228219999999</v>
-      </c>
-      <c r="D62" s="15">
-        <v>7.8425489603366635E-2</v>
-      </c>
-      <c r="E62" s="16">
-        <v>14.510622274000001</v>
-      </c>
-      <c r="F62" s="15">
-        <v>0.15310092320983423</v>
-      </c>
-      <c r="G62" s="16">
-        <v>17.727065540000002</v>
-      </c>
-      <c r="H62" s="15">
-        <v>0.18703747149687802</v>
-      </c>
-      <c r="I62" s="16">
-        <v>59.756647302000005</v>
-      </c>
-      <c r="J62" s="15">
-        <v>0.63048969900163288</v>
-      </c>
-      <c r="K62" s="16">
-        <v>94.77815005799998</v>
-      </c>
-      <c r="L62" s="17">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="35"/>
-      <c r="B63" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C63" s="18">
-        <v>2.0574710920000001</v>
-      </c>
-      <c r="D63" s="19">
-        <v>0.17015038750644559</v>
-      </c>
-      <c r="E63" s="24">
-        <v>0.92351043399999999</v>
-      </c>
-      <c r="F63" s="19">
-        <v>7.6373203406031487E-2</v>
-      </c>
-      <c r="G63" s="20">
-        <v>2.157377801</v>
-      </c>
-      <c r="H63" s="19">
-        <v>0.17841255231495301</v>
-      </c>
-      <c r="I63" s="20">
-        <v>9.663379591</v>
-      </c>
-      <c r="J63" s="19">
-        <v>0.79914988279724886</v>
-      </c>
-      <c r="K63" s="20">
-        <v>12.092074089</v>
-      </c>
-      <c r="L63" s="22">
-        <v>1</v>
-      </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="33">
-        <v>0.55010051299999996</v>
-      </c>
-      <c r="D64" s="28">
-        <v>4.87152679040809E-2</v>
-      </c>
-      <c r="E64" s="29">
-        <v>1.8715177779999999</v>
-      </c>
-      <c r="F64" s="28">
-        <v>0.16573605693496274</v>
-      </c>
-      <c r="G64" s="34">
-        <v>0.257847194</v>
-      </c>
-      <c r="H64" s="28">
+      <c r="I65" s="27">
         <v>2.2834181821651062E-2</v>
       </c>
-      <c r="I64" s="29">
+      <c r="J65" s="28">
         <v>9.538194025000001</v>
       </c>
-      <c r="J64" s="28">
+      <c r="K65" s="27">
         <v>0.84467413912224232</v>
       </c>
-      <c r="K64" s="29">
+      <c r="L65" s="28">
         <v>11.292158222000001</v>
       </c>
-      <c r="L64" s="30">
-        <v>1</v>
-      </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="3"/>
+      <c r="M65" s="29">
+        <v>1</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:H46"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:L65"/>
-    <mergeCell ref="A49:B50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B49:M49"/>
+    <mergeCell ref="B1:X1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B15:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:M66"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1:W1" location="'Analysis Plan'!A1" display="Back to Analysis Plan" xr:uid="{DCD63076-5AE1-4F16-9BEB-C29204400944}"/>
+    <hyperlink ref="B1:X1" location="LIst" display="Back to Analysis Plan" xr:uid="{DCD63076-5AE1-4F16-9BEB-C29204400944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3154,7 +3348,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C6B7D25836F67646A98C66F1CDD61673" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c52d6cab250df69c2bdfed776df9ffc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6df68d03-0d94-44b1-a9a2-765e7690f201" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c8c761c4bf2ce1df6029c896e91e76d8" ns3:_="">
     <xsd:import namespace="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
@@ -3318,13 +3512,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF79DAD9-D6C8-4C87-8D6E-3D4417292CFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A19E0B4B-B4BC-4C97-AD18-0CA131C4BB9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3332,7 +3536,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FCD4D90-49DB-49FC-B9DF-8142D27BC789}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3348,20 +3552,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF79DAD9-D6C8-4C87-8D6E-3D4417292CFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6df68d03-0d94-44b1-a9a2-765e7690f201"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>